--- a/public_html/archivos/2010_1059_EAU.xlsx
+++ b/public_html/archivos/2010_1059_EAU.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="164">
   <si>
     <t>INSTITUCION</t>
   </si>
@@ -285,9 +285,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD DE OTAVALO</t>
   </si>
   <si>
@@ -360,12 +357,6 @@
     <t>FUNCIONANDO NORMALMENTE</t>
   </si>
   <si>
-    <t>07087</t>
-  </si>
-  <si>
-    <t>NO VIGENTE HABILITADO PARA REGISTRO DE TÍTULOS</t>
-  </si>
-  <si>
     <t>CIENCIAS ADMINISTRATIVAS Y ECONOMICAS</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>ADMINISTRACIÓN MENCIÓN FINANZAS</t>
   </si>
   <si>
-    <t>04294</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN Y DESARROLLO DE EMPRESAS MENCIÓN CONTABILIDAD AUDITORIA Y TRIBUTACION</t>
   </si>
   <si>
@@ -399,9 +387,6 @@
     <t>CONTABILIDAD Y AUDITORIA</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN Y DESARROLLO DE EMPRESAS MENCIÓN MERCADOTECNIA</t>
   </si>
   <si>
@@ -414,9 +399,6 @@
     <t>MARKETING</t>
   </si>
   <si>
-    <t>07090</t>
-  </si>
-  <si>
     <t>CIENCIAS HUMANAS Y SOCIALES</t>
   </si>
   <si>
@@ -435,9 +417,6 @@
     <t>UNIVERSIDAD  DE OTAVALO</t>
   </si>
   <si>
-    <t>04293</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN DISEÑO GRAFICO</t>
   </si>
   <si>
@@ -459,9 +438,6 @@
     <t>008-08-CD</t>
   </si>
   <si>
-    <t>11976</t>
-  </si>
-  <si>
     <t>ADMINISTRACIÓN DE TUTISMO</t>
   </si>
   <si>
@@ -486,18 +462,12 @@
     <t>TURISMO</t>
   </si>
   <si>
-    <t>04295</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN MARKETING Y TURISMO INTERNACIONAL</t>
   </si>
   <si>
     <t>INGENIERO EN MARKETING Y TURISMO INTERNACIONAL</t>
   </si>
   <si>
-    <t>07091</t>
-  </si>
-  <si>
     <t xml:space="preserve">CIENCIAS ADMINISTRATIVAS </t>
   </si>
   <si>
@@ -532,9 +502,6 @@
   </si>
   <si>
     <t>SUSPENDIDA PARA NUEVAS MATRICULAS</t>
-  </si>
-  <si>
-    <t>12641</t>
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
@@ -951,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,13 +1006,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1055,9 +1020,9 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1067,7 +1032,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,85 +1300,79 @@
       <c r="CK5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1059</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="Q6" s="5">
         <v>65</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U6" s="5">
         <v>8</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
@@ -1425,46 +1384,46 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="4">
         <v>2002</v>
       </c>
       <c r="AG6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM6" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP6" s="4">
         <v>5</v>
@@ -1479,22 +1438,22 @@
         <v>246</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU6" s="4">
         <v>790</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ6" s="4">
         <v>1</v>
@@ -1569,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC6" s="4">
         <v>5</v>
@@ -1602,7 +1561,7 @@
         <v>39</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ6" s="7">
         <v>15479</v>
@@ -1610,85 +1569,79 @@
       <c r="CK6" s="7">
         <v>2046</v>
       </c>
-      <c r="CL6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1059</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="5">
         <v>65</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U7" s="5">
         <v>4</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y7" s="5">
         <v>0</v>
@@ -1700,46 +1653,46 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF7" s="4">
         <v>2002</v>
       </c>
       <c r="AG7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP7" s="4">
         <v>5</v>
@@ -1754,22 +1707,22 @@
         <v>255</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU7" s="4">
         <v>790</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ7" s="4">
         <v>1</v>
@@ -1844,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC7" s="4">
         <v>2</v>
@@ -1877,7 +1830,7 @@
         <v>41</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ7" s="7">
         <v>16886</v>
@@ -1885,85 +1838,79 @@
       <c r="CK7" s="7">
         <v>2232</v>
       </c>
-      <c r="CL7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1059</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="5">
         <v>65</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U8" s="5">
         <v>4</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -1975,46 +1922,46 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF8" s="4">
         <v>2002</v>
       </c>
       <c r="AG8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP8" s="4">
         <v>5</v>
@@ -2029,22 +1976,22 @@
         <v>255</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU8" s="4">
         <v>790</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ8" s="4">
         <v>1</v>
@@ -2119,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC8" s="4">
         <v>0</v>
@@ -2152,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="CI8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ8" s="7">
         <v>14541</v>
@@ -2160,85 +2107,79 @@
       <c r="CK8" s="7">
         <v>1922</v>
       </c>
-      <c r="CL8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1059</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="5">
         <v>65</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U9" s="5">
         <v>4</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="5">
         <v>0</v>
@@ -2250,46 +2191,46 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF9" s="4">
         <v>2002</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM9" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP9" s="4">
         <v>5</v>
@@ -2304,22 +2245,22 @@
         <v>256</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU9" s="4">
         <v>790</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ9" s="4">
         <v>1</v>
@@ -2394,19 +2335,19 @@
         <v>0</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC9" s="4">
         <v>0</v>
@@ -2427,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="CI9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ9" s="7">
         <v>4691</v>
@@ -2435,85 +2376,79 @@
       <c r="CK9" s="7">
         <v>620</v>
       </c>
-      <c r="CL9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CM9" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1059</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="5">
         <v>65</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U10" s="5">
         <v>1</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
@@ -2525,46 +2460,46 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF10" s="4">
         <v>2002</v>
       </c>
       <c r="AG10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM10" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP10" s="4">
         <v>5</v>
@@ -2579,22 +2514,22 @@
         <v>248</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU10" s="4">
         <v>790</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ10" s="4">
         <v>1</v>
@@ -2669,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC10" s="4">
         <v>9</v>
@@ -2702,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="CI10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ10" s="7">
         <v>1876</v>
@@ -2710,85 +2645,79 @@
       <c r="CK10" s="7">
         <v>248</v>
       </c>
-      <c r="CL10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="CM10" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1059</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="5">
         <v>65</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="U11" s="5">
         <v>1</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Y11" s="5">
         <v>0</v>
@@ -2800,46 +2729,46 @@
         <v>1</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF11" s="4">
         <v>2008</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AH11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM11" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP11" s="4">
         <v>5</v>
@@ -2854,22 +2783,22 @@
         <v>255</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU11" s="4">
         <v>790</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ11" s="4">
         <v>1</v>
@@ -2944,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="BX11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC11" s="4">
         <v>0</v>
@@ -2977,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="CI11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ11" s="7">
         <v>12196</v>
@@ -2985,136 +2914,130 @@
       <c r="CK11" s="7">
         <v>1612</v>
       </c>
-      <c r="CL11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM11" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1059</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="5">
         <v>65</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="U12" s="5">
         <v>1</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Y12" s="5">
         <v>1</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AA12" s="5">
         <v>0</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF12" s="4">
         <v>2002</v>
       </c>
       <c r="AG12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AM12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP12" s="4">
         <v>5</v>
@@ -3129,22 +3052,22 @@
         <v>255</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU12" s="4">
         <v>790</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ12" s="4">
         <v>1</v>
@@ -3219,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="BX12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC12" s="4">
         <v>1</v>
@@ -3252,7 +3175,7 @@
         <v>66</v>
       </c>
       <c r="CI12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ12" s="7">
         <v>12665</v>
@@ -3260,136 +3183,130 @@
       <c r="CK12" s="7">
         <v>1674</v>
       </c>
-      <c r="CL12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="CM12" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1059</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="5">
         <v>65</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="U13" s="5">
         <v>1</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="5">
         <v>1</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AA13" s="5">
         <v>0</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF13" s="4">
         <v>2002</v>
       </c>
       <c r="AG13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM13" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP13" s="4">
         <v>5</v>
@@ -3404,22 +3321,22 @@
         <v>255</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU13" s="4">
         <v>790</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ13" s="4">
         <v>1</v>
@@ -3494,19 +3411,19 @@
         <v>0</v>
       </c>
       <c r="BX13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC13" s="4">
         <v>0</v>
@@ -3527,7 +3444,7 @@
         <v>32</v>
       </c>
       <c r="CI13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ13" s="7">
         <v>16886</v>
@@ -3535,85 +3452,79 @@
       <c r="CK13" s="7">
         <v>2232</v>
       </c>
-      <c r="CL13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="CM13" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1059</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="5">
         <v>65</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U14" s="5">
         <v>4</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Y14" s="5">
         <v>0</v>
@@ -3625,42 +3536,42 @@
         <v>0</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF14" s="4">
         <v>2002</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="AN14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP14" s="4">
         <v>0</v>
@@ -3675,22 +3586,22 @@
         <v>0</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ14" s="4">
         <v>0</v>
@@ -3765,19 +3676,19 @@
         <v>0</v>
       </c>
       <c r="BX14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BY14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BZ14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC14" s="4">
         <v>0</v>
@@ -3798,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="CI14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CJ14" s="7">
         <v>0</v>
@@ -3806,85 +3717,79 @@
       <c r="CK14" s="7">
         <v>0</v>
       </c>
-      <c r="CL14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM14" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1059</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="5">
         <v>55</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U15" s="5">
         <v>4</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
@@ -3896,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF15" s="4">
         <v>2002</v>
@@ -3915,23 +3820,23 @@
         <v>207.1</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP15" s="4">
         <v>0</v>
@@ -3946,22 +3851,22 @@
         <v>185</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AU15" s="4">
         <v>790</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ15" s="4">
         <v>1</v>
@@ -4036,19 +3941,19 @@
         <v>0</v>
       </c>
       <c r="BX15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CB15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC15" s="4">
         <v>0</v>
@@ -4069,19 +3974,13 @@
         <v>0</v>
       </c>
       <c r="CI15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ15" s="7">
         <v>0</v>
       </c>
       <c r="CK15" s="7">
         <v>0</v>
-      </c>
-      <c r="CL15" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CM15" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
